--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter02/Dates_02_04.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter02/Dates_02_04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C298A24-3F49-4009-B137-3D7C99072028}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEEFAF9-FC69-4B83-9E2E-0A27B5839C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="253">
   <si>
     <t>OrderNum</t>
   </si>
@@ -785,13 +785,22 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Sum of Total Price</t>
   </si>
   <si>
-    <t>Column Labels</t>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
 </sst>
 </file>
@@ -842,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -853,6 +862,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,7 +872,7 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -4591,12 +4603,12 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9DEA82EB-3407-4106-9D29-25141BDA1135}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:H5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:H7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="14" subtotalTop="0" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" numFmtId="14" subtotalTop="0" showAll="0" defaultSubtotal="0">
       <items count="14">
         <item x="0"/>
         <item x="1"/>
@@ -4684,17 +4696,17 @@
     <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" defaultSubtotal="0">
       <items count="6">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
-        <item x="2"/>
+        <item sd="0" x="2"/>
         <item sd="0" x="3"/>
         <item sd="0" x="4"/>
         <item sd="0" x="5"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0" defaultSubtotal="0">
       <items count="4">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
@@ -4703,8 +4715,21 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="3">
+    <field x="11"/>
+    <field x="10"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
   <colFields count="1">
     <field x="4"/>
@@ -4767,7 +4792,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5063,22 +5088,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529B311F-2408-4E23-9EAC-3B801B640F4A}">
-  <dimension ref="A3:H5"/>
+  <dimension ref="A3:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -5137,11 +5162,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="B3" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>208</v>
       </c>
@@ -5161,33 +5192,85 @@
         <v>210</v>
       </c>
       <c r="H4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>248</v>
+      <c r="A5" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="B5" s="5">
+        <v>618529.55000000005</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1585624</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4332.8300000000008</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5073.8899999999994</v>
+      </c>
+      <c r="F5" s="5">
+        <v>150850.52000000002</v>
+      </c>
+      <c r="G5" s="5">
+        <v>149195</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2513605.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="5">
+        <v>600563.20000000007</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2001299</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4628.8700000000008</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6035.08</v>
+      </c>
+      <c r="F6" s="5">
+        <v>144255.52000000002</v>
+      </c>
+      <c r="G6" s="5">
+        <v>157848</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2914629.6700000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="5">
         <v>1219092.75</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C7" s="5">
         <v>3586923</v>
       </c>
-      <c r="D5" s="5">
-        <v>8961.7000000000025</v>
-      </c>
-      <c r="E5" s="5">
-        <v>11108.969999999998</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="D7" s="5">
+        <v>8961.7000000000007</v>
+      </c>
+      <c r="E7" s="5">
+        <v>11108.97</v>
+      </c>
+      <c r="F7" s="5">
         <v>295106.04000000004</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G7" s="5">
         <v>307043</v>
       </c>
-      <c r="H5" s="5">
-        <v>5428235.46</v>
+      <c r="H7" s="5">
+        <v>5428235.4600000009</v>
       </c>
     </row>
   </sheetData>
@@ -5203,7 +5286,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
